--- a/ANT_conditions.xlsx
+++ b/ANT_conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackm\Desktop\PsychoPy\ANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A83BA5-ADE6-4984-A6E7-D00705A11C53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE4F3E1-FE6F-4183-AE13-2B0233F39208}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{E4FA26E3-7C44-E44E-A384-D353340863E7}"/>
+    <workbookView xWindow="2660" yWindow="2800" windowWidth="16920" windowHeight="10800" xr2:uid="{E4FA26E3-7C44-E44E-A384-D353340863E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="21">
   <si>
     <t>cue_file</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>stimStart</t>
+  </si>
+  <si>
+    <t>postFix</t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FC96B6-A05C-AC4D-AE07-DF09D2D9355D}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -454,7 +457,7 @@
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,8 +479,11 @@
       <c r="G1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -500,8 +506,12 @@
         <f>SUM(E2+F2+0.4)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <f>1.7-E2</f>
+        <v>1.5999999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -524,8 +534,12 @@
         <f t="shared" ref="G3:G49" si="0">SUM(E3+F3+0.4)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <f t="shared" ref="H3:H49" si="1">1.7-E3</f>
+        <v>1.5999999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -548,8 +562,12 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>1.5999999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -572,8 +590,12 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>1.5999999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -596,8 +618,12 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>1.5999999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -620,8 +646,12 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1.5999999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -644,8 +674,12 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1.5999999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -668,8 +702,12 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.5999999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -692,8 +730,12 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1.5999999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -716,8 +758,12 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>1.5999999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -740,8 +786,12 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>1.5999999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -764,8 +814,12 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>1.5999999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -788,8 +842,12 @@
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0.59999999999999987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -812,8 +870,12 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -836,8 +898,12 @@
         <f t="shared" si="0"/>
         <v>1.7000000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -860,8 +926,12 @@
         <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -884,8 +954,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -908,8 +982,12 @@
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -932,8 +1010,12 @@
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -956,8 +1038,12 @@
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -980,8 +1066,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1004,8 +1094,12 @@
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999867E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1028,8 +1122,12 @@
         <f t="shared" si="0"/>
         <v>1.8000000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1052,8 +1150,12 @@
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1076,8 +1178,12 @@
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1100,8 +1206,12 @@
         <f t="shared" si="0"/>
         <v>1.7000000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1124,8 +1234,12 @@
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1148,8 +1262,12 @@
         <f t="shared" si="0"/>
         <v>1.8000000000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1172,8 +1290,12 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1196,8 +1318,12 @@
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1220,8 +1346,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1244,8 +1374,12 @@
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1268,8 +1402,12 @@
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1292,8 +1430,12 @@
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0.59999999999999987</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1316,8 +1458,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1340,8 +1486,12 @@
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999867E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1364,8 +1514,12 @@
         <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1388,8 +1542,12 @@
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1412,8 +1570,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1436,8 +1598,12 @@
         <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1460,8 +1626,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1484,8 +1654,12 @@
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1508,8 +1682,12 @@
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -1532,8 +1710,12 @@
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -1556,8 +1738,12 @@
         <f t="shared" si="0"/>
         <v>1.7000000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -1580,8 +1766,12 @@
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -1604,8 +1794,12 @@
         <f t="shared" si="0"/>
         <v>1.8000000000000003</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1627,6 +1821,10 @@
       <c r="G49">
         <f t="shared" si="0"/>
         <v>1.5</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
